--- a/template/Reseller_Template.xlsx
+++ b/template/Reseller_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedjin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cirs/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54A6FB5-6685-9944-99E0-090FAB77BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18472985-A6A7-3840-AE85-5E28E67EDC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{92AE5B92-5365-034D-9B5B-A22E79F9F3B3}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15860" xr2:uid="{92AE5B92-5365-034D-9B5B-A22E79F9F3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Other Code (AutoCount etc.)</t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Branch Address 1</t>
+  </si>
+  <si>
+    <t>Branch Address 2</t>
+  </si>
+  <si>
+    <t>Branch Address 3</t>
+  </si>
+  <si>
+    <t>Branch Address 4</t>
+  </si>
+  <si>
+    <t>Branch Phone</t>
+  </si>
+  <si>
+    <t>Branch PIC</t>
+  </si>
+  <si>
+    <t>Branch PIC Contact</t>
+  </si>
+  <si>
+    <t>Branch MAP URL</t>
+  </si>
+  <si>
+    <t>Branch Email</t>
   </si>
 </sst>
 </file>
@@ -488,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125823E3-52EA-F948-B717-4748812FBA4E}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,31 +565,31 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
